--- a/2024年一所工作任务/20240605CTID测试/测试报告.xlsx
+++ b/2024年一所工作任务/20240605CTID测试/测试报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\2024年一所工作任务\20240605CTID测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F0B761-F1F9-4945-A7B4-75B8DEE0FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F44603-E53D-401A-BCDF-3BDA46206452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA0EC8-6C2B-48E3-8C01-0FC2AA0A45F0}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
